--- a/podatki/ZlatoSidro/ZlatoSidro.xlsx
+++ b/podatki/ZlatoSidro/ZlatoSidro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ZlatoSidro" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="List2" sheetId="2" r:id="rId5"/>
     <sheet name="List3" sheetId="3" r:id="rId6"/>
     <sheet name="List4" sheetId="4" r:id="rId7"/>
+    <sheet name="List1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="623">
   <si>
     <t>No</t>
   </si>
@@ -1851,6 +1852,54 @@
   </si>
   <si>
     <t>dsq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO clanstvo(klub_idklub,tekmovalec_idtekmovalec) </t>
+  </si>
+  <si>
+    <t>SELECT k.idklub, t.idtekmovalec FROM (</t>
+  </si>
+  <si>
+    <t>JK OLIMPIC</t>
+  </si>
+  <si>
+    <t>CDV MUGGIA</t>
+  </si>
+  <si>
+    <t>JK LJUBLJANA</t>
+  </si>
+  <si>
+    <t>LNI TRIESTE</t>
+  </si>
+  <si>
+    <t>YC ADRIACO</t>
+  </si>
+  <si>
+    <t>JK BURJA</t>
+  </si>
+  <si>
+    <t>PD PIRAN</t>
+  </si>
+  <si>
+    <t>TRIESTINA DELLA VELA</t>
+  </si>
+  <si>
+    <t>JK PIRAT</t>
+  </si>
+  <si>
+    <t>JK IZOLA</t>
+  </si>
+  <si>
+    <t>BALATONFIRED YC</t>
+  </si>
+  <si>
+    <t>TPK SIRENA</t>
+  </si>
+  <si>
+    <t>WSC CRNOMELJ</t>
+  </si>
+  <si>
+    <t>SMD PIRAN</t>
   </si>
 </sst>
 </file>
@@ -7024,8 +7073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" activeCellId="1" sqref="D1:D1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10896,7 +10945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -10987,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:L65" si="6">IF(ISNUMBER(K2),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(27,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",$A2,"'),",K2,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(27,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",$A2,"'),'",K2,"');"))</f>
+        <f t="shared" ref="J2:J65" si="6">IF(ISNUMBER(K2),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(27,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",$A2,"'),",K2,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(27,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",$A2,"'),'",K2,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(27,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='11'),2);</v>
       </c>
       <c r="K2">
@@ -28978,4 +29027,2862 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G1,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D1" t="str">
+        <f t="shared" ref="D1" si="0">CONCATENATE(" SELECT idtekmovalec FROM tekmovalec WHERE sailno = '",F1,"') t")</f>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO711') t</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1" si="1">CONCATENATE(" WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = '",F1,"');")</f>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO711');</v>
+      </c>
+      <c r="F1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G2,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="2">CONCATENATE(" SELECT idtekmovalec FROM tekmovalec WHERE sailno = '",F2,"') t")</f>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = '11') t</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="3">CONCATENATE(" WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = '",F2,"');")</f>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = '11');</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G3,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'BALATONFIRED YC') k, (</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'HUN918') t</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'HUN918');</v>
+      </c>
+      <c r="F3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G4,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO922') t</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO922');</v>
+      </c>
+      <c r="F4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G5,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO944') t</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO944');</v>
+      </c>
+      <c r="F5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G6,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8953') t</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8953');</v>
+      </c>
+      <c r="F6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G7,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7926') t</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7926');</v>
+      </c>
+      <c r="F7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G8,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'BALATONFIRED YC') k, (</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'HUN1313') t</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'HUN1313');</v>
+      </c>
+      <c r="F8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G9,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO758') t</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO758');</v>
+      </c>
+      <c r="F9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G10,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK IZOLA') k, (</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO255') t</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO255');</v>
+      </c>
+      <c r="F10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G11,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8037') t</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8037');</v>
+      </c>
+      <c r="F11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G12,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA9074') t</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA9074');</v>
+      </c>
+      <c r="F12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G13,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8386') t</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8386');</v>
+      </c>
+      <c r="F13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G14,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8340') t</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8340');</v>
+      </c>
+      <c r="F14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G15,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO811') t</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO811');</v>
+      </c>
+      <c r="F15" t="s">
+        <v>448</v>
+      </c>
+      <c r="G15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G16,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK IZOLA') k, (</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO1212') t</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO1212');</v>
+      </c>
+      <c r="F16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B17" t="s">
+        <v>608</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G17,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO411') t</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO411');</v>
+      </c>
+      <c r="F17" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G18,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO750') t</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO750');</v>
+      </c>
+      <c r="F18" t="s">
+        <v>454</v>
+      </c>
+      <c r="G18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G19,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'BALATONFIRED YC') k, (</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'HUN901') t</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'HUN901');</v>
+      </c>
+      <c r="F19" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G20,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO64') t</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO64');</v>
+      </c>
+      <c r="F20" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>608</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G21,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO311') t</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO311');</v>
+      </c>
+      <c r="F21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>607</v>
+      </c>
+      <c r="B22" t="s">
+        <v>608</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G22,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO377') t</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO377');</v>
+      </c>
+      <c r="F22" t="s">
+        <v>462</v>
+      </c>
+      <c r="G22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>607</v>
+      </c>
+      <c r="B23" t="s">
+        <v>608</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G23,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA6981') t</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA6981');</v>
+      </c>
+      <c r="F23" t="s">
+        <v>464</v>
+      </c>
+      <c r="G23" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>607</v>
+      </c>
+      <c r="B24" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G24,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8341') t</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8341');</v>
+      </c>
+      <c r="F24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>607</v>
+      </c>
+      <c r="B25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G25,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO952') t</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO952');</v>
+      </c>
+      <c r="F25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G25" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G26,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8815') t</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8815');</v>
+      </c>
+      <c r="F26" t="s">
+        <v>470</v>
+      </c>
+      <c r="G26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>607</v>
+      </c>
+      <c r="B27" t="s">
+        <v>608</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G27,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8308') t</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8308');</v>
+      </c>
+      <c r="F27" t="s">
+        <v>472</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G28,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8874') t</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8874');</v>
+      </c>
+      <c r="F28" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>607</v>
+      </c>
+      <c r="B29" t="s">
+        <v>608</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G29,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'WSC CRNOMELJ') k, (</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO234') t</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO234');</v>
+      </c>
+      <c r="F29" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G30,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO666') t</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO666');</v>
+      </c>
+      <c r="F30" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>607</v>
+      </c>
+      <c r="B31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G31,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK IZOLA') k, (</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO228') t</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO228');</v>
+      </c>
+      <c r="F31" t="s">
+        <v>480</v>
+      </c>
+      <c r="G31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G32,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO913') t</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO913');</v>
+      </c>
+      <c r="F32" t="s">
+        <v>482</v>
+      </c>
+      <c r="G32" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" t="s">
+        <v>608</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G33,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA96') t</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA96');</v>
+      </c>
+      <c r="F33" t="s">
+        <v>484</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" t="s">
+        <v>608</v>
+      </c>
+      <c r="C34" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G34,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO1005') t</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO1005');</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>607</v>
+      </c>
+      <c r="B35" t="s">
+        <v>608</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G35,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO511') t</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO511');</v>
+      </c>
+      <c r="F35" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>607</v>
+      </c>
+      <c r="B36" t="s">
+        <v>608</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:C65" si="4">CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G36,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO951') t</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO951');</v>
+      </c>
+      <c r="F36" t="s">
+        <v>489</v>
+      </c>
+      <c r="G36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>607</v>
+      </c>
+      <c r="B37" t="s">
+        <v>608</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'NCA') k, (</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'AUT1150') t</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'AUT1150');</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA9045') t</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA9045');</v>
+      </c>
+      <c r="F38" t="s">
+        <v>492</v>
+      </c>
+      <c r="G38" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>607</v>
+      </c>
+      <c r="B39" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7707') t</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7707');</v>
+      </c>
+      <c r="F39" t="s">
+        <v>494</v>
+      </c>
+      <c r="G39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>607</v>
+      </c>
+      <c r="B40" t="s">
+        <v>608</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SUI1860') t</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SUI1860');</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>607</v>
+      </c>
+      <c r="B41" t="s">
+        <v>608</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SMD PIRAN') k, (</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO875') t</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO875');</v>
+      </c>
+      <c r="F41" t="s">
+        <v>497</v>
+      </c>
+      <c r="G41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" t="s">
+        <v>608</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO677') t</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO677');</v>
+      </c>
+      <c r="F42" t="s">
+        <v>499</v>
+      </c>
+      <c r="G42" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" t="s">
+        <v>608</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7803') t</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7803');</v>
+      </c>
+      <c r="F43" t="s">
+        <v>501</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>607</v>
+      </c>
+      <c r="B44" t="s">
+        <v>608</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8853') t</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8853');</v>
+      </c>
+      <c r="F44" t="s">
+        <v>503</v>
+      </c>
+      <c r="G44" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>607</v>
+      </c>
+      <c r="B45" t="s">
+        <v>608</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8832') t</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8832');</v>
+      </c>
+      <c r="F45" t="s">
+        <v>505</v>
+      </c>
+      <c r="G45" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>607</v>
+      </c>
+      <c r="B46" t="s">
+        <v>608</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO525') t</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO525');</v>
+      </c>
+      <c r="F46" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>607</v>
+      </c>
+      <c r="B47" t="s">
+        <v>608</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO395') t</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO395');</v>
+      </c>
+      <c r="F47" t="s">
+        <v>509</v>
+      </c>
+      <c r="G47" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>607</v>
+      </c>
+      <c r="B48" t="s">
+        <v>608</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO759') t</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO759');</v>
+      </c>
+      <c r="F48" t="s">
+        <v>511</v>
+      </c>
+      <c r="G48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>607</v>
+      </c>
+      <c r="B49" t="s">
+        <v>608</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO669') t</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO669');</v>
+      </c>
+      <c r="F49" t="s">
+        <v>513</v>
+      </c>
+      <c r="G49" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>607</v>
+      </c>
+      <c r="B50" t="s">
+        <v>608</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO368') t</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO368');</v>
+      </c>
+      <c r="F50" t="s">
+        <v>515</v>
+      </c>
+      <c r="G50" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>607</v>
+      </c>
+      <c r="B51" t="s">
+        <v>608</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8954') t</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8954');</v>
+      </c>
+      <c r="F51" t="s">
+        <v>517</v>
+      </c>
+      <c r="G51" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>607</v>
+      </c>
+      <c r="B52" t="s">
+        <v>608</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO2112VID') t</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO2112VID');</v>
+      </c>
+      <c r="F52" t="s">
+        <v>519</v>
+      </c>
+      <c r="G52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>607</v>
+      </c>
+      <c r="B53" t="s">
+        <v>608</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA87') t</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA87');</v>
+      </c>
+      <c r="F53" t="s">
+        <v>520</v>
+      </c>
+      <c r="G53" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>607</v>
+      </c>
+      <c r="B54" t="s">
+        <v>608</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8063') t</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8063');</v>
+      </c>
+      <c r="F54" t="s">
+        <v>522</v>
+      </c>
+      <c r="G54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>607</v>
+      </c>
+      <c r="B55" t="s">
+        <v>608</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SUI1862LUKAS') t</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SUI1862LUKAS');</v>
+      </c>
+      <c r="F55" t="s">
+        <v>524</v>
+      </c>
+      <c r="G55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>607</v>
+      </c>
+      <c r="B56" t="s">
+        <v>608</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO956') t</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO956');</v>
+      </c>
+      <c r="F56" t="s">
+        <v>525</v>
+      </c>
+      <c r="G56" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B57" t="s">
+        <v>608</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TPK SIRENA') k, (</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8581') t</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8581');</v>
+      </c>
+      <c r="F57" t="s">
+        <v>527</v>
+      </c>
+      <c r="G57" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>607</v>
+      </c>
+      <c r="B58" t="s">
+        <v>608</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO111') t</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO111');</v>
+      </c>
+      <c r="F58" t="s">
+        <v>529</v>
+      </c>
+      <c r="G58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>607</v>
+      </c>
+      <c r="B59" t="s">
+        <v>608</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8726') t</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8726');</v>
+      </c>
+      <c r="F59" t="s">
+        <v>531</v>
+      </c>
+      <c r="G59" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>607</v>
+      </c>
+      <c r="B60" t="s">
+        <v>608</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO911') t</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO911');</v>
+      </c>
+      <c r="F60" t="s">
+        <v>533</v>
+      </c>
+      <c r="G60" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>607</v>
+      </c>
+      <c r="B61" t="s">
+        <v>608</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO955') t</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO955');</v>
+      </c>
+      <c r="F61" t="s">
+        <v>535</v>
+      </c>
+      <c r="G61" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>607</v>
+      </c>
+      <c r="B62" t="s">
+        <v>608</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO678') t</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO678');</v>
+      </c>
+      <c r="F62" t="s">
+        <v>537</v>
+      </c>
+      <c r="G62" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>607</v>
+      </c>
+      <c r="B63" t="s">
+        <v>608</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO958') t</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO958');</v>
+      </c>
+      <c r="F63" t="s">
+        <v>539</v>
+      </c>
+      <c r="G63" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>607</v>
+      </c>
+      <c r="B64" t="s">
+        <v>608</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8184') t</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8184');</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>607</v>
+      </c>
+      <c r="B65" t="s">
+        <v>608</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8652') t</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8652');</v>
+      </c>
+      <c r="F65" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>607</v>
+      </c>
+      <c r="B66" t="s">
+        <v>608</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C109" si="5">CONCATENATE(" SELECT idklub FROM klub WHERE ime = '",G66,"') k, (")</f>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D109" si="6">CONCATENATE(" SELECT idtekmovalec FROM tekmovalec WHERE sailno = '",F66,"') t")</f>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA9003') t</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E109" si="7">CONCATENATE(" WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = '",F66,"');")</f>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA9003');</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>607</v>
+      </c>
+      <c r="B67" t="s">
+        <v>608</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO93') t</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO93');</v>
+      </c>
+      <c r="F67" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>607</v>
+      </c>
+      <c r="B68" t="s">
+        <v>608</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8886') t</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8886');</v>
+      </c>
+      <c r="F68" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>607</v>
+      </c>
+      <c r="B69" t="s">
+        <v>608</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'LNI TRIESTE') k, (</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8793') t</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8793');</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>607</v>
+      </c>
+      <c r="B70" t="s">
+        <v>608</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8499') t</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8499');</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>607</v>
+      </c>
+      <c r="B71" t="s">
+        <v>608</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO618') t</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO618');</v>
+      </c>
+      <c r="F71" t="s">
+        <v>555</v>
+      </c>
+      <c r="G71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>607</v>
+      </c>
+      <c r="B72" t="s">
+        <v>608</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA9032') t</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA9032');</v>
+      </c>
+      <c r="F72" t="s">
+        <v>557</v>
+      </c>
+      <c r="G72" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>607</v>
+      </c>
+      <c r="B73" t="s">
+        <v>608</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8388') t</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8388');</v>
+      </c>
+      <c r="F73" t="s">
+        <v>559</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>607</v>
+      </c>
+      <c r="B74" t="s">
+        <v>608</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8952') t</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8952');</v>
+      </c>
+      <c r="F74" t="s">
+        <v>561</v>
+      </c>
+      <c r="G74" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>607</v>
+      </c>
+      <c r="B75" t="s">
+        <v>608</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO631') t</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO631');</v>
+      </c>
+      <c r="F75" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>607</v>
+      </c>
+      <c r="B76" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7356') t</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7356');</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>607</v>
+      </c>
+      <c r="B77" t="s">
+        <v>608</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO527') t</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO527');</v>
+      </c>
+      <c r="F77" t="s">
+        <v>567</v>
+      </c>
+      <c r="G77" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>607</v>
+      </c>
+      <c r="B78" t="s">
+        <v>608</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'LNI TRIESTE') k, (</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA6445') t</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA6445');</v>
+      </c>
+      <c r="F78" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" t="s">
+        <v>608</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8779') t</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8779');</v>
+      </c>
+      <c r="F79" t="s">
+        <v>571</v>
+      </c>
+      <c r="G79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>607</v>
+      </c>
+      <c r="B80" t="s">
+        <v>608</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO912') t</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO912');</v>
+      </c>
+      <c r="F80" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>607</v>
+      </c>
+      <c r="B81" t="s">
+        <v>608</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'YC ADRIACO') k, (</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SUI1824') t</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SUI1824');</v>
+      </c>
+      <c r="F81" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>607</v>
+      </c>
+      <c r="B82" t="s">
+        <v>608</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO524') t</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO524');</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>607</v>
+      </c>
+      <c r="B83" t="s">
+        <v>608</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK BURJA') k, (</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO393') t</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO393');</v>
+      </c>
+      <c r="F83" t="s">
+        <v>300</v>
+      </c>
+      <c r="G83" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>607</v>
+      </c>
+      <c r="B84" t="s">
+        <v>608</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO984') t</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO984');</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+      <c r="G84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>607</v>
+      </c>
+      <c r="B85" t="s">
+        <v>608</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'PD PIRAN') k, (</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO443') t</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO443');</v>
+      </c>
+      <c r="F85" t="s">
+        <v>304</v>
+      </c>
+      <c r="G85" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>607</v>
+      </c>
+      <c r="B86" t="s">
+        <v>608</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'PD PIRAN') k, (</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO523') t</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO523');</v>
+      </c>
+      <c r="F86" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>607</v>
+      </c>
+      <c r="B87" t="s">
+        <v>608</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA6959') t</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA6959');</v>
+      </c>
+      <c r="F87" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>607</v>
+      </c>
+      <c r="B88" t="s">
+        <v>608</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'CDV MUGGIA') k, (</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7369') t</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7369');</v>
+      </c>
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>607</v>
+      </c>
+      <c r="B89" t="s">
+        <v>608</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA6') t</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA6');</v>
+      </c>
+      <c r="F89" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>607</v>
+      </c>
+      <c r="B90" t="s">
+        <v>608</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK PIRAT') k, (</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO188') t</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO188');</v>
+      </c>
+      <c r="F90" t="s">
+        <v>314</v>
+      </c>
+      <c r="G90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>607</v>
+      </c>
+      <c r="B91" t="s">
+        <v>608</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO526') t</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO526');</v>
+      </c>
+      <c r="F91" t="s">
+        <v>316</v>
+      </c>
+      <c r="G91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>607</v>
+      </c>
+      <c r="B92" t="s">
+        <v>608</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK IZOLA') k, (</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO189') t</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO189');</v>
+      </c>
+      <c r="F92" t="s">
+        <v>318</v>
+      </c>
+      <c r="G92" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>607</v>
+      </c>
+      <c r="B93" t="s">
+        <v>608</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8058') t</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8058');</v>
+      </c>
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+      <c r="G93" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>607</v>
+      </c>
+      <c r="B94" t="s">
+        <v>608</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8761') t</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8761');</v>
+      </c>
+      <c r="F94" t="s">
+        <v>322</v>
+      </c>
+      <c r="G94" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>607</v>
+      </c>
+      <c r="B95" t="s">
+        <v>608</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO821') t</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO821');</v>
+      </c>
+      <c r="F95" t="s">
+        <v>324</v>
+      </c>
+      <c r="G95" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>607</v>
+      </c>
+      <c r="B96" t="s">
+        <v>608</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'LNI TRIESTE') k, (</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8336') t</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8336');</v>
+      </c>
+      <c r="F96" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>607</v>
+      </c>
+      <c r="B97" t="s">
+        <v>608</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8988') t</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8988');</v>
+      </c>
+      <c r="F97" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>607</v>
+      </c>
+      <c r="B98" t="s">
+        <v>608</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'STSM') k, (</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8983') t</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8983');</v>
+      </c>
+      <c r="F98" t="s">
+        <v>330</v>
+      </c>
+      <c r="G98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>607</v>
+      </c>
+      <c r="B99" t="s">
+        <v>608</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA5') t</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA5');</v>
+      </c>
+      <c r="F99" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>607</v>
+      </c>
+      <c r="B100" t="s">
+        <v>608</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO520') t</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO520');</v>
+      </c>
+      <c r="F100" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>607</v>
+      </c>
+      <c r="B101" t="s">
+        <v>608</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA111') t</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA111');</v>
+      </c>
+      <c r="F101" t="s">
+        <v>336</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>607</v>
+      </c>
+      <c r="B102" t="s">
+        <v>608</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK OLIMPIC') k, (</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO668') t</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO668');</v>
+      </c>
+      <c r="F102" t="s">
+        <v>338</v>
+      </c>
+      <c r="G102" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>607</v>
+      </c>
+      <c r="B103" t="s">
+        <v>608</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'LNI TRIESTE') k, (</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA7162') t</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA7162');</v>
+      </c>
+      <c r="F103" t="s">
+        <v>340</v>
+      </c>
+      <c r="G103" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" t="s">
+        <v>608</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'TRIESTINA DELLA VELA') k, (</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA8275') t</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA8275');</v>
+      </c>
+      <c r="F104" t="s">
+        <v>342</v>
+      </c>
+      <c r="G104" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>607</v>
+      </c>
+      <c r="B105" t="s">
+        <v>608</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO962') t</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO962');</v>
+      </c>
+      <c r="F105" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>607</v>
+      </c>
+      <c r="B106" t="s">
+        <v>608</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK LJUBLJANA') k, (</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO855') t</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO855');</v>
+      </c>
+      <c r="F106" t="s">
+        <v>346</v>
+      </c>
+      <c r="G106" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>607</v>
+      </c>
+      <c r="B107" t="s">
+        <v>608</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'L1') t</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'L1');</v>
+      </c>
+      <c r="F107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>607</v>
+      </c>
+      <c r="B108" t="s">
+        <v>608</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'JK JADRO KOPER') k, (</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'SLO611') t</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'SLO611');</v>
+      </c>
+      <c r="F108" t="s">
+        <v>350</v>
+      </c>
+      <c r="G108" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>607</v>
+      </c>
+      <c r="B109" t="s">
+        <v>608</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SELECT idklub FROM klub WHERE ime = 'SVBG') k, (</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> SELECT idtekmovalec FROM tekmovalec WHERE sailno = 'ITA3') t</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> WHERE NOT EXISTS (SELECT tekmovalec_idtekmovalec, idtekmovalec, sailno FROM clanstvo JOIN tekmovalec ON idtekmovalec = tekmovalec_idtekmovalec WHERE sailno = 'ITA3');</v>
+      </c>
+      <c r="F109" t="s">
+        <v>352</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>